--- a/medicine/Autisme/Autism_Is_a_World/Autism_Is_a_World.xlsx
+++ b/medicine/Autisme/Autism_Is_a_World/Autism_Is_a_World.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autism Is a World est un court métrage documentaire américain sorti en 2004 écrit par Sue Rubin, une femme autiste qui aurait appris à communiquer grâce à la technique discréditée de la communication facilitée et réalisé par Gerardine Wurzburg[1]. Le film a été nommé aux Oscars dans la catégorie Meilleur court métrage documentaire. Le film est controversé parce qu'il fait la promotion de la technique discréditée de la communication facilitée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autism Is a World est un court métrage documentaire américain sorti en 2004 écrit par Sue Rubin, une femme autiste qui aurait appris à communiquer grâce à la technique discréditée de la communication facilitée et réalisé par Gerardine Wurzburg. Le film a été nommé aux Oscars dans la catégorie Meilleur court métrage documentaire. Le film est controversé parce qu'il fait la promotion de la technique discréditée de la communication facilitée.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubin est une femme autiste qui a été diagnostiquée déficiente intellectuelle dans sa petite enfance. Le film affirme qu'à l'âge de treize ans, elle a appris à s'exprimer en tapant sur un clavier d'ordinateur, révélant ainsi qu'elle était en fait très intelligente. Le dialogue de Rubin est raconté par l'actrice Julianna Margulies.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Autism Is a World
 Réalisation : Gerardine Wurzburg
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sue Rubin : elle-même
 Julianna Margulies : narratrice</t>
@@ -620,8 +638,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nomination
-2004 : Meilleur court métrage documentaire aux Oscars</t>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2004 : Meilleur court métrage documentaire aux Oscars</t>
         </is>
       </c>
     </row>
